--- a/r5-core-17-municipality-code-to-austrian-address/StructureDefinition-at-core-ext-valueset-systemoid.xlsx
+++ b/r5-core-17-municipality-code-to-austrian-address/StructureDefinition-at-core-ext-valueset-systemoid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-09T19:09:04+00:00</t>
+    <t>2024-10-23T07:06:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
